--- a/data-mining/lab3/lab3.xlsx
+++ b/data-mining/lab3/lab3.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Drapegnik/projects/bsu/data-mining/lab3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24860" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -85,13 +90,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +120,12 @@
       <sz val="12"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,12 +186,17 @@
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -363,11 +378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126223960"/>
-        <c:axId val="2126225576"/>
+        <c:axId val="-2065785664"/>
+        <c:axId val="-2066274720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126223960"/>
+        <c:axId val="-2065785664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -379,12 +394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126225576"/>
+        <c:crossAx val="-2066274720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126225576"/>
+        <c:axId val="-2066274720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45.0"/>
@@ -397,7 +412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126223960"/>
+        <c:crossAx val="-2065785664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -423,16 +438,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -776,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -790,7 +805,7 @@
     <col min="13" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,15 +815,15 @@
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>91</v>
       </c>
@@ -816,22 +831,22 @@
         <v>25</v>
       </c>
       <c r="C2" s="3">
-        <f>((A2-$L$2)*(B2-$M$2))/($L$4*$M$4)</f>
+        <f>((A2-$E$2)*(B2-$F$2))/($E$4*$F$4)</f>
         <v>-0.15922819596359469</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="E2" s="1">
         <f>AVERAGE(A2:A18)</f>
         <v>86.647058823529406</v>
       </c>
-      <c r="M2" s="1">
+      <c r="F2" s="1">
         <f>AVERAGE(B2:B18)</f>
         <v>27.117647058823529</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>103</v>
       </c>
@@ -839,22 +854,22 @@
         <v>24</v>
       </c>
       <c r="C3" s="3">
-        <f>((A3-$L$2)*(B3-$M$2))/($L$4*$M$4)</f>
+        <f>((A3-$E$2)*(B3-$F$2))/($E$4*$F$4)</f>
         <v>-0.88065624599384473</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="E3" s="1">
         <f>VAR(A2:A18)</f>
         <v>135.49264705882342</v>
       </c>
-      <c r="M3" s="1">
+      <c r="F3" s="1">
         <f>VAR(B2:B18)</f>
         <v>24.735294117647072</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>84</v>
       </c>
@@ -862,22 +877,22 @@
         <v>30</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C18" si="0">((A4-$L$2)*(B4-$M$2))/($L$4*$M$4)</f>
+        <f>((A4-$E$2)*(B4-$F$2))/($E$4*$F$4)</f>
         <v>-0.1317936081455425</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="1">
-        <f>SQRT(L3)</f>
+      <c r="E4" s="1">
+        <f>SQRT(E3)</f>
         <v>11.640130886670622</v>
       </c>
-      <c r="M4" s="1">
-        <f>SQRT(M3)</f>
+      <c r="F4" s="1">
+        <f>SQRT(F3)</f>
         <v>4.973458969132758</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>82</v>
       </c>
@@ -885,12 +900,12 @@
         <v>27</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
+        <f>((A5-$E$2)*(B5-$F$2))/($E$4*$F$4)</f>
         <v>9.4437143251680979E-3</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>97</v>
       </c>
@@ -898,11 +913,18 @@
         <v>23</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
+        <f>((A6-$E$2)*(B6-$F$2))/($E$4*$F$4)</f>
         <v>-0.73637063598779484</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <f>1+FLOOR(LOG(COUNT(A2:A18),2), 1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>63</v>
       </c>
@@ -910,11 +932,18 @@
         <v>41</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f>((A7-$E$2)*(B7-$F$2))/($E$4*$F$4)</f>
         <v>-5.670532059856658</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <f>(MAX(A2:A18)-MIN(A2:A18))/E6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>92</v>
       </c>
@@ -922,11 +951,18 @@
         <v>23</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f>((A8-$E$2)*(B8-$F$2))/($E$4*$F$4)</f>
         <v>-0.38073709019823504</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(C2:C18)/COUNT(C2:C18)-0.0519</f>
+        <v>-0.88234915717649498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -934,11 +970,18 @@
         <v>31</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f>((A9-$E$2)*(B9-$F$2))/($E$4*$F$4)</f>
         <v>-0.84814117895022734</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <f>ABS(E8)*SQRT((COUNT(A2:A18)-2)/(1- E8*E8))</f>
+        <v>7.2617031487501489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>78</v>
       </c>
@@ -946,11 +989,11 @@
         <v>30</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f>((A10-$E$2)*(B10-$F$2))/($E$4*$F$4)</f>
         <v>-0.43052578660877283</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>77</v>
       </c>
@@ -958,11 +1001,11 @@
         <v>28</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f>((A11-$E$2)*(B11-$F$2))/($E$4*$F$4)</f>
         <v>-0.14703504582223814</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>85</v>
       </c>
@@ -970,11 +1013,11 @@
         <v>26</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f>((A12-$E$2)*(B12-$F$2))/($E$4*$F$4)</f>
         <v>3.1797822917654636E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>103</v>
       </c>
@@ -982,11 +1025,11 @@
         <v>20</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f>((A13-$E$2)*(B13-$F$2))/($E$4*$F$4)</f>
         <v>-2.0105548257595323</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>79</v>
       </c>
@@ -994,11 +1037,11 @@
         <v>31</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
+        <f>((A14-$E$2)*(B14-$F$2))/($E$4*$F$4)</f>
         <v>-0.51282955006292796</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>83</v>
       </c>
@@ -1006,11 +1049,11 @@
         <v>24</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
+        <f>((A15-$E$2)*(B15-$F$2))/($E$4*$F$4)</f>
         <v>0.196405349825965</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>108</v>
       </c>
@@ -1018,11 +1061,11 @@
         <v>21</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
+        <f>((A16-$E$2)*(B16-$F$2))/($E$4*$F$4)</f>
         <v>-2.2564500202768851</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>91</v>
       </c>
@@ -1030,11 +1073,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="3">
-        <f>((A17-$L$2)*(B17-$M$2))/($L$4*$M$4)</f>
+        <f>((A17-$E$2)*(B17-$F$2))/($E$4*$F$4)</f>
         <v>-8.8460108868663422E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>83</v>
       </c>
@@ -1042,11 +1085,11 @@
         <v>30</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
+        <f>((A18-$E$2)*(B18-$F$2))/($E$4*$F$4)</f>
         <v>-0.18158230455608088</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1073,21 +1116,14 @@
       <c r="K22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="1">
-        <f>1+FLOOR(LOG(COUNT(A2:A18),2), 1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f>L2-L4</f>
+        <f>E2-E4</f>
         <v>75.006927936858787</v>
       </c>
       <c r="B23" s="1">
-        <f>L2+L4</f>
+        <f>E2+E4</f>
         <v>98.287189710200025</v>
       </c>
       <c r="C23" s="1">
@@ -1106,7 +1142,7 @@
         <v>63</v>
       </c>
       <c r="H23" s="1">
-        <f>G23+N23</f>
+        <f>G23+E7</f>
         <v>72</v>
       </c>
       <c r="I23" s="1">
@@ -1121,21 +1157,14 @@
         <f>J23/I23</f>
         <v>41</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="1">
-        <f>(MAX(A2:A18)-MIN(A2:A18))/N22</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f>L2-2*L4</f>
+        <f>E2-2*E4</f>
         <v>63.366797050188161</v>
       </c>
       <c r="B24" s="1">
-        <f>L2+2*L4</f>
+        <f>E2+2*E4</f>
         <v>109.92732059687066</v>
       </c>
       <c r="C24" s="1">
@@ -1154,7 +1183,7 @@
         <v>72</v>
       </c>
       <c r="H24" s="1">
-        <f>G24+N23</f>
+        <f>G24+E7</f>
         <v>81</v>
       </c>
       <c r="I24" s="1">
@@ -1166,24 +1195,17 @@
         <v>120</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" ref="K24:K27" si="1">J24/I24</f>
+        <f t="shared" ref="K24:K27" si="0">J24/I24</f>
         <v>30</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" s="1">
-        <f>SUM(C2:C18)/COUNT(C2:C18)-0.0519</f>
-        <v>-0.88234915717649498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f>L2-3*L4</f>
+        <f>E2-3*E4</f>
         <v>51.726666163517535</v>
       </c>
       <c r="B25" s="1">
-        <f>L2+3*L4</f>
+        <f>E2+3*E4</f>
         <v>121.56745148354128</v>
       </c>
       <c r="C25" s="1">
@@ -1202,7 +1224,7 @@
         <v>81</v>
       </c>
       <c r="H25" s="1">
-        <f>G25+N23</f>
+        <f>G25+E7</f>
         <v>90</v>
       </c>
       <c r="I25" s="1">
@@ -1214,18 +1236,11 @@
         <v>137</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27.4</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="1">
-        <f>ABS(N24)*SQRT((COUNT(A2:A18)-2)/(1- N24*N24))</f>
-        <v>7.2617031487501489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1252,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="1">
-        <f>G26+N23</f>
+        <f>G26+E7</f>
         <v>99</v>
       </c>
       <c r="I26" s="1">
@@ -1249,11 +1264,11 @@
         <v>98</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="array" ref="A27:B27">LINEST(B2:B18,A2:A18)</f>
         <v>-0.37700113963206161</v>
@@ -1266,7 +1281,7 @@
         <v>99</v>
       </c>
       <c r="H27" s="1">
-        <f>G27+N23</f>
+        <f>G27+E7</f>
         <v>108</v>
       </c>
       <c r="I27" s="1">
@@ -1278,7 +1293,7 @@
         <v>44</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
     </row>
@@ -1287,13 +1302,9 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="G22:H22"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>